--- a/Pubmed/Lassa/Reference_Summary_Dec17.xlsx
+++ b/Pubmed/Lassa/Reference_Summary_Dec17.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/Library/CloudStorage/Dropbox/Shared/___SystematicReviewsAI/LASV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2553D14-6F23-4342-81B3-CBFF3AA6B365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B7472C-C273-1F48-9D60-C09B0F9D394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="980" windowWidth="36160" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,9 +657,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>GPT(Y/N)</t>
-  </si>
-  <si>
     <t>unsure</t>
   </si>
   <si>
@@ -1846,6 +1843,9 @@
   </si>
   <si>
     <t>L, Z</t>
+  </si>
+  <si>
+    <t>GPT (Y/N)</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2275,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
+      <selection pane="bottomLeft" activeCell="V98" sqref="V98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2354,7 +2354,7 @@
         <v>196</v>
       </c>
       <c r="Q1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R1" t="s">
         <v>197</v>
@@ -2369,7 +2369,7 @@
         <v>200</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>206</v>
+        <v>574</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>201</v>
@@ -2404,61 +2404,61 @@
         <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s">
         <v>210</v>
       </c>
-      <c r="I2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" t="s">
         <v>212</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>213</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>214</v>
       </c>
-      <c r="N2" t="s">
-        <v>215</v>
-      </c>
       <c r="O2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -2481,37 +2481,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -2534,37 +2534,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -2587,37 +2587,37 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V5" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -2640,37 +2640,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -2693,37 +2693,37 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V7" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="96" x14ac:dyDescent="0.2">
@@ -2746,61 +2746,61 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" t="s">
         <v>222</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J8" t="s">
-        <v>211</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" t="s">
         <v>224</v>
       </c>
-      <c r="L8" t="s">
-        <v>226</v>
-      </c>
-      <c r="M8" t="s">
-        <v>214</v>
-      </c>
-      <c r="N8" t="s">
-        <v>225</v>
-      </c>
       <c r="O8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -2823,58 +2823,58 @@
         <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H9" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" t="s">
         <v>228</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>229</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
+        <v>225</v>
+      </c>
+      <c r="M9" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" t="s">
         <v>230</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
+        <v>319</v>
+      </c>
+      <c r="P9" t="s">
         <v>226</v>
       </c>
-      <c r="M9" t="s">
-        <v>214</v>
-      </c>
-      <c r="N9" t="s">
-        <v>231</v>
-      </c>
-      <c r="O9" t="s">
-        <v>320</v>
-      </c>
-      <c r="P9" t="s">
-        <v>227</v>
-      </c>
       <c r="Q9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -2897,55 +2897,55 @@
         <v>593</v>
       </c>
       <c r="G10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H10" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" t="s">
         <v>210</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" t="s">
+        <v>213</v>
+      </c>
+      <c r="N10" t="s">
         <v>233</v>
       </c>
-      <c r="J10" t="s">
-        <v>211</v>
-      </c>
-      <c r="L10" t="s">
-        <v>226</v>
-      </c>
-      <c r="M10" t="s">
-        <v>214</v>
-      </c>
-      <c r="N10" t="s">
-        <v>234</v>
-      </c>
       <c r="O10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -2968,34 +2968,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3018,61 +3018,61 @@
         <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H12" t="s">
+        <v>235</v>
+      </c>
+      <c r="I12" t="s">
         <v>236</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" t="s">
         <v>237</v>
       </c>
-      <c r="J12" t="s">
-        <v>211</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>212</v>
+      </c>
+      <c r="M12" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" t="s">
         <v>238</v>
       </c>
-      <c r="L12" t="s">
-        <v>213</v>
-      </c>
-      <c r="M12" t="s">
-        <v>214</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>239</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>240</v>
       </c>
-      <c r="P12" t="s">
-        <v>241</v>
-      </c>
       <c r="Q12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V12" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3095,61 +3095,61 @@
         <v>205</v>
       </c>
       <c r="G13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" t="s">
         <v>242</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>243</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>244</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>225</v>
+      </c>
+      <c r="M13" t="s">
+        <v>213</v>
+      </c>
+      <c r="N13" t="s">
         <v>245</v>
       </c>
-      <c r="L13" t="s">
-        <v>226</v>
-      </c>
-      <c r="M13" t="s">
-        <v>214</v>
-      </c>
-      <c r="N13" t="s">
-        <v>246</v>
-      </c>
       <c r="O13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3172,49 +3172,49 @@
         <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V14" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3237,37 +3237,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3290,40 +3290,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V16" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3346,37 +3346,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3399,40 +3399,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H18" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" t="s">
         <v>210</v>
       </c>
-      <c r="J18" t="s">
-        <v>211</v>
-      </c>
       <c r="P18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3455,37 +3455,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3508,58 +3508,58 @@
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I20">
         <v>2019</v>
       </c>
       <c r="J20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K20" t="s">
+        <v>250</v>
+      </c>
+      <c r="L20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M20" t="s">
+        <v>213</v>
+      </c>
+      <c r="N20" t="s">
         <v>251</v>
       </c>
-      <c r="L20" t="s">
-        <v>213</v>
-      </c>
-      <c r="M20" t="s">
-        <v>214</v>
-      </c>
-      <c r="N20" t="s">
-        <v>252</v>
-      </c>
       <c r="P20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V20" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3582,61 +3582,61 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I21" t="s">
+        <v>254</v>
+      </c>
+      <c r="J21" t="s">
+        <v>249</v>
+      </c>
+      <c r="K21" t="s">
         <v>255</v>
       </c>
-      <c r="J21" t="s">
-        <v>250</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>256</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
+        <v>213</v>
+      </c>
+      <c r="N21" t="s">
         <v>257</v>
       </c>
-      <c r="M21" t="s">
-        <v>214</v>
-      </c>
-      <c r="N21" t="s">
-        <v>258</v>
-      </c>
       <c r="O21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3659,61 +3659,61 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V22" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3736,61 +3736,61 @@
         <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I23" t="s">
+        <v>260</v>
+      </c>
+      <c r="J23" t="s">
+        <v>248</v>
+      </c>
+      <c r="K23" t="s">
         <v>261</v>
       </c>
-      <c r="J23" t="s">
-        <v>249</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="s">
+        <v>213</v>
+      </c>
+      <c r="N23" t="s">
         <v>262</v>
       </c>
-      <c r="L23" t="s">
-        <v>213</v>
-      </c>
-      <c r="M23" t="s">
-        <v>214</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>263</v>
       </c>
-      <c r="O23" t="s">
-        <v>264</v>
-      </c>
       <c r="P23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3813,58 +3813,58 @@
         <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I24">
         <v>2018</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V24" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="112" x14ac:dyDescent="0.2">
@@ -3887,52 +3887,52 @@
         <v>280</v>
       </c>
       <c r="G25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K25" t="s">
         <v>267</v>
       </c>
-      <c r="K25" t="s">
-        <v>268</v>
-      </c>
       <c r="L25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -3955,37 +3955,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V26" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4008,61 +4008,61 @@
         <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I27" t="s">
+        <v>268</v>
+      </c>
+      <c r="J27" t="s">
         <v>269</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>270</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="s">
+        <v>213</v>
+      </c>
+      <c r="N27" t="s">
         <v>271</v>
       </c>
-      <c r="L27" t="s">
-        <v>213</v>
-      </c>
-      <c r="M27" t="s">
-        <v>214</v>
-      </c>
-      <c r="N27" t="s">
-        <v>272</v>
-      </c>
       <c r="O27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4085,61 +4085,61 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" t="s">
         <v>273</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>274</v>
       </c>
-      <c r="K28" t="s">
-        <v>275</v>
-      </c>
       <c r="L28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M28" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" t="s">
         <v>214</v>
       </c>
-      <c r="N28" t="s">
-        <v>215</v>
-      </c>
       <c r="O28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4162,58 +4162,58 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J29" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s">
+        <v>212</v>
+      </c>
+      <c r="M29" t="s">
+        <v>213</v>
+      </c>
+      <c r="N29" t="s">
         <v>277</v>
       </c>
-      <c r="L29" t="s">
-        <v>213</v>
-      </c>
-      <c r="M29" t="s">
-        <v>214</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
+        <v>252</v>
+      </c>
+      <c r="P29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q29" t="s">
         <v>278</v>
       </c>
-      <c r="O29" t="s">
-        <v>253</v>
-      </c>
-      <c r="P29" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>279</v>
-      </c>
       <c r="S29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4236,61 +4236,61 @@
         <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H30" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" t="s">
         <v>210</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>280</v>
       </c>
-      <c r="J30" t="s">
-        <v>211</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" t="s">
+        <v>213</v>
+      </c>
+      <c r="N30" t="s">
         <v>281</v>
       </c>
-      <c r="L30" t="s">
-        <v>226</v>
-      </c>
-      <c r="M30" t="s">
-        <v>214</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
+        <v>320</v>
+      </c>
+      <c r="P30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q30" t="s">
         <v>282</v>
       </c>
-      <c r="O30" t="s">
-        <v>321</v>
-      </c>
-      <c r="P30" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>283</v>
-      </c>
       <c r="S30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4313,61 +4313,61 @@
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I31" t="s">
+        <v>284</v>
+      </c>
+      <c r="J31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" t="s">
         <v>285</v>
       </c>
-      <c r="J31" t="s">
-        <v>260</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>212</v>
+      </c>
+      <c r="M31" t="s">
+        <v>213</v>
+      </c>
+      <c r="N31" t="s">
         <v>286</v>
       </c>
-      <c r="L31" t="s">
-        <v>213</v>
-      </c>
-      <c r="M31" t="s">
-        <v>214</v>
-      </c>
-      <c r="N31" t="s">
-        <v>287</v>
-      </c>
       <c r="O31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4390,34 +4390,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V32" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4440,34 +4440,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4490,55 +4490,55 @@
         <v>120</v>
       </c>
       <c r="G34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I34">
         <v>2018</v>
       </c>
       <c r="J34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4561,58 +4561,58 @@
         <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I35">
         <v>2018</v>
       </c>
       <c r="J35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N35" t="s">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>320</v>
+      </c>
+      <c r="P35" t="s">
         <v>289</v>
       </c>
-      <c r="O35" t="s">
-        <v>321</v>
-      </c>
-      <c r="P35" t="s">
-        <v>290</v>
-      </c>
       <c r="Q35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4635,61 +4635,61 @@
         <v>120</v>
       </c>
       <c r="G36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I36">
         <v>2018</v>
       </c>
       <c r="J36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V36" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4712,55 +4712,55 @@
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4783,61 +4783,61 @@
         <v>220</v>
       </c>
       <c r="G38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I38" t="s">
+        <v>293</v>
+      </c>
+      <c r="J38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" t="s">
         <v>294</v>
       </c>
-      <c r="J38" t="s">
-        <v>211</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
+        <v>225</v>
+      </c>
+      <c r="M38" t="s">
+        <v>213</v>
+      </c>
+      <c r="N38" t="s">
         <v>295</v>
       </c>
-      <c r="L38" t="s">
-        <v>226</v>
-      </c>
-      <c r="M38" t="s">
-        <v>214</v>
-      </c>
-      <c r="N38" t="s">
-        <v>296</v>
-      </c>
       <c r="O38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V38" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4860,61 +4860,61 @@
         <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I39">
         <v>2016</v>
       </c>
       <c r="J39" t="s">
+        <v>297</v>
+      </c>
+      <c r="K39" t="s">
         <v>298</v>
       </c>
-      <c r="K39" t="s">
-        <v>299</v>
-      </c>
       <c r="L39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V39" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -4937,61 +4937,61 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I40">
         <v>2016</v>
       </c>
       <c r="J40" t="s">
+        <v>299</v>
+      </c>
+      <c r="K40" t="s">
         <v>300</v>
       </c>
-      <c r="K40" t="s">
-        <v>301</v>
-      </c>
       <c r="L40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V40" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -5014,61 +5014,61 @@
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J41" t="s">
         <v>302</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>303</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
+        <v>256</v>
+      </c>
+      <c r="M41" t="s">
+        <v>213</v>
+      </c>
+      <c r="N41" t="s">
         <v>304</v>
       </c>
-      <c r="L41" t="s">
-        <v>257</v>
-      </c>
-      <c r="M41" t="s">
-        <v>214</v>
-      </c>
-      <c r="N41" t="s">
-        <v>305</v>
-      </c>
       <c r="O41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V41" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -5091,61 +5091,61 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I42">
         <v>2013</v>
       </c>
       <c r="J42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K42" t="s">
+        <v>305</v>
+      </c>
+      <c r="L42" t="s">
+        <v>212</v>
+      </c>
+      <c r="M42" t="s">
+        <v>213</v>
+      </c>
+      <c r="N42" t="s">
+        <v>304</v>
+      </c>
+      <c r="O42" t="s">
+        <v>322</v>
+      </c>
+      <c r="P42" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q42" t="s">
         <v>306</v>
       </c>
-      <c r="L42" t="s">
-        <v>213</v>
-      </c>
-      <c r="M42" t="s">
-        <v>214</v>
-      </c>
-      <c r="N42" t="s">
-        <v>305</v>
-      </c>
-      <c r="O42" t="s">
-        <v>323</v>
-      </c>
-      <c r="P42" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>307</v>
-      </c>
       <c r="S42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V42" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="32" x14ac:dyDescent="0.2">
@@ -5168,61 +5168,61 @@
         <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I43" t="s">
+        <v>307</v>
+      </c>
+      <c r="J43" t="s">
+        <v>210</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J43" t="s">
-        <v>211</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="L43" t="s">
+        <v>212</v>
+      </c>
+      <c r="M43" t="s">
         <v>213</v>
       </c>
-      <c r="M43" t="s">
-        <v>214</v>
-      </c>
       <c r="N43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -5245,61 +5245,61 @@
         <v>132</v>
       </c>
       <c r="G44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I44" t="s">
+        <v>311</v>
+      </c>
+      <c r="J44" t="s">
+        <v>248</v>
+      </c>
+      <c r="K44" t="s">
         <v>312</v>
       </c>
-      <c r="J44" t="s">
-        <v>249</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
+        <v>212</v>
+      </c>
+      <c r="M44" t="s">
+        <v>213</v>
+      </c>
+      <c r="N44" t="s">
+        <v>314</v>
+      </c>
+      <c r="O44" t="s">
         <v>313</v>
       </c>
-      <c r="L44" t="s">
-        <v>213</v>
-      </c>
-      <c r="M44" t="s">
-        <v>214</v>
-      </c>
-      <c r="N44" t="s">
-        <v>315</v>
-      </c>
-      <c r="O44" t="s">
-        <v>314</v>
-      </c>
       <c r="P44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V44" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -5322,64 +5322,64 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" t="s">
         <v>316</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>317</v>
       </c>
-      <c r="K45" t="s">
-        <v>318</v>
-      </c>
       <c r="L45" t="s">
+        <v>212</v>
+      </c>
+      <c r="M45" t="s">
         <v>213</v>
       </c>
-      <c r="M45" t="s">
-        <v>214</v>
-      </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -5402,66 +5402,66 @@
         <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H46" t="s">
+        <v>329</v>
+      </c>
+      <c r="I46" t="s">
         <v>330</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>331</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="L46" t="s">
+        <v>225</v>
+      </c>
+      <c r="M46" t="s">
+        <v>213</v>
+      </c>
+      <c r="N46" t="s">
         <v>333</v>
       </c>
-      <c r="L46" t="s">
-        <v>226</v>
-      </c>
-      <c r="M46" t="s">
-        <v>214</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>334</v>
       </c>
-      <c r="O46" t="s">
-        <v>335</v>
-      </c>
       <c r="P46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V46" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s">
         <v>121</v>
@@ -5479,61 +5479,61 @@
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I47">
         <v>2013</v>
       </c>
       <c r="J47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K47" t="s">
+        <v>337</v>
+      </c>
+      <c r="L47" t="s">
+        <v>212</v>
+      </c>
+      <c r="M47" t="s">
+        <v>213</v>
+      </c>
+      <c r="N47" t="s">
         <v>338</v>
       </c>
-      <c r="L47" t="s">
-        <v>213</v>
-      </c>
-      <c r="M47" t="s">
-        <v>214</v>
-      </c>
-      <c r="N47" t="s">
-        <v>339</v>
-      </c>
       <c r="O47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V47" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="48" x14ac:dyDescent="0.2">
@@ -5556,61 +5556,61 @@
         <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I48">
         <v>2009</v>
       </c>
       <c r="J48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K48" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L48" t="s">
+        <v>212</v>
+      </c>
+      <c r="M48" t="s">
+        <v>213</v>
+      </c>
+      <c r="N48" t="s">
         <v>340</v>
       </c>
-      <c r="L48" t="s">
-        <v>213</v>
-      </c>
-      <c r="M48" t="s">
-        <v>214</v>
-      </c>
-      <c r="N48" t="s">
-        <v>341</v>
-      </c>
       <c r="O48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V48" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="48" x14ac:dyDescent="0.2">
@@ -5633,58 +5633,58 @@
         <v>50</v>
       </c>
       <c r="G49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N49" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="48" x14ac:dyDescent="0.2">
@@ -5707,55 +5707,55 @@
         <v>27</v>
       </c>
       <c r="G50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H50" t="s">
+        <v>343</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" t="s">
+        <v>225</v>
+      </c>
+      <c r="M50" t="s">
+        <v>213</v>
+      </c>
+      <c r="N50" t="s">
         <v>345</v>
       </c>
-      <c r="L50" t="s">
-        <v>226</v>
-      </c>
-      <c r="M50" t="s">
-        <v>214</v>
-      </c>
-      <c r="N50" t="s">
-        <v>346</v>
-      </c>
       <c r="O50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V50" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -5778,34 +5778,34 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V51" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -5828,55 +5828,55 @@
         <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I52" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" t="s">
         <v>347</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
+        <v>212</v>
+      </c>
+      <c r="N52" t="s">
         <v>348</v>
       </c>
-      <c r="L52" t="s">
-        <v>213</v>
-      </c>
-      <c r="N52" t="s">
-        <v>349</v>
-      </c>
       <c r="O52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V52" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -5899,58 +5899,58 @@
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I53" t="s">
+        <v>349</v>
+      </c>
+      <c r="J53" t="s">
+        <v>210</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="J53" t="s">
-        <v>211</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" t="s">
+        <v>212</v>
+      </c>
+      <c r="N53" t="s">
         <v>351</v>
       </c>
-      <c r="L53" t="s">
-        <v>213</v>
-      </c>
-      <c r="N53" t="s">
-        <v>352</v>
-      </c>
       <c r="O53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -5973,52 +5973,52 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I54">
         <v>2010</v>
       </c>
       <c r="J54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V54" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -6041,58 +6041,58 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I55">
         <v>2009</v>
       </c>
       <c r="J55" t="s">
+        <v>353</v>
+      </c>
+      <c r="K55" t="s">
         <v>354</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
+        <v>212</v>
+      </c>
+      <c r="N55" t="s">
         <v>355</v>
       </c>
-      <c r="L55" t="s">
-        <v>213</v>
-      </c>
-      <c r="N55" t="s">
-        <v>356</v>
-      </c>
       <c r="O55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V55" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -6115,58 +6115,58 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H56" t="s">
+        <v>209</v>
+      </c>
+      <c r="I56" t="s">
+        <v>349</v>
+      </c>
+      <c r="J56" t="s">
         <v>210</v>
       </c>
-      <c r="I56" t="s">
-        <v>350</v>
-      </c>
-      <c r="J56" t="s">
-        <v>211</v>
-      </c>
       <c r="K56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N56" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V56" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -6189,34 +6189,34 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V57" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -6239,34 +6239,34 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V58" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -6289,58 +6289,58 @@
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I59" t="s">
+        <v>357</v>
+      </c>
+      <c r="J59" t="s">
+        <v>248</v>
+      </c>
+      <c r="K59" t="s">
         <v>358</v>
       </c>
-      <c r="J59" t="s">
-        <v>249</v>
-      </c>
-      <c r="K59" t="s">
-        <v>359</v>
-      </c>
       <c r="L59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O59" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V59" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -6363,61 +6363,61 @@
         <v>2</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I60">
         <v>1977</v>
       </c>
       <c r="J60" t="s">
+        <v>359</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="L60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V60" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -6440,58 +6440,58 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H61" t="s">
+        <v>209</v>
+      </c>
+      <c r="I61" t="s">
+        <v>362</v>
+      </c>
+      <c r="J61" t="s">
         <v>210</v>
       </c>
-      <c r="I61" t="s">
+      <c r="K61" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="J61" t="s">
-        <v>211</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="L61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V61" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -6514,58 +6514,58 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I62">
         <v>2004</v>
       </c>
       <c r="J62" t="s">
+        <v>364</v>
+      </c>
+      <c r="K62" t="s">
         <v>365</v>
       </c>
-      <c r="K62" t="s">
-        <v>366</v>
-      </c>
       <c r="L62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N62" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O62" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V62" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -6588,34 +6588,34 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V63" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -6638,58 +6638,58 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I64">
         <v>2000</v>
       </c>
       <c r="J64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K64" t="s">
+        <v>366</v>
+      </c>
+      <c r="L64" t="s">
+        <v>212</v>
+      </c>
+      <c r="N64" t="s">
         <v>367</v>
       </c>
-      <c r="L64" t="s">
-        <v>213</v>
-      </c>
-      <c r="N64" t="s">
-        <v>368</v>
-      </c>
       <c r="O64" t="s">
+        <v>239</v>
+      </c>
+      <c r="P64" t="s">
         <v>240</v>
       </c>
-      <c r="P64" t="s">
-        <v>241</v>
-      </c>
       <c r="Q64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V64" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -6712,61 +6712,61 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I65">
         <v>2000</v>
       </c>
       <c r="J65" t="s">
+        <v>368</v>
+      </c>
+      <c r="K65" t="s">
+        <v>370</v>
+      </c>
+      <c r="L65" t="s">
+        <v>212</v>
+      </c>
+      <c r="N65" t="s">
+        <v>345</v>
+      </c>
+      <c r="O65" t="s">
+        <v>239</v>
+      </c>
+      <c r="P65" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>278</v>
+      </c>
+      <c r="R65" t="s">
         <v>369</v>
       </c>
-      <c r="K65" t="s">
-        <v>371</v>
-      </c>
-      <c r="L65" t="s">
-        <v>213</v>
-      </c>
-      <c r="N65" t="s">
-        <v>346</v>
-      </c>
-      <c r="O65" t="s">
-        <v>240</v>
-      </c>
-      <c r="P65" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>279</v>
-      </c>
-      <c r="R65" t="s">
-        <v>370</v>
-      </c>
       <c r="S65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V65" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -6789,61 +6789,61 @@
         <v>54</v>
       </c>
       <c r="G66" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I66" t="s">
+        <v>371</v>
+      </c>
+      <c r="J66" t="s">
         <v>372</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>373</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
+        <v>212</v>
+      </c>
+      <c r="M66" t="s">
+        <v>216</v>
+      </c>
+      <c r="N66" t="s">
         <v>374</v>
       </c>
-      <c r="L66" t="s">
-        <v>213</v>
-      </c>
-      <c r="M66" t="s">
-        <v>217</v>
-      </c>
-      <c r="N66" t="s">
-        <v>375</v>
-      </c>
       <c r="O66" t="s">
+        <v>239</v>
+      </c>
+      <c r="P66" t="s">
         <v>240</v>
       </c>
-      <c r="P66" t="s">
-        <v>241</v>
-      </c>
       <c r="Q66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V66" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -6866,61 +6866,61 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I67">
         <v>1997</v>
       </c>
       <c r="J67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K67" t="s">
+        <v>375</v>
+      </c>
+      <c r="L67" t="s">
+        <v>212</v>
+      </c>
+      <c r="M67" t="s">
+        <v>216</v>
+      </c>
+      <c r="N67" t="s">
+        <v>379</v>
+      </c>
+      <c r="O67" t="s">
         <v>376</v>
       </c>
-      <c r="L67" t="s">
-        <v>213</v>
-      </c>
-      <c r="M67" t="s">
-        <v>217</v>
-      </c>
-      <c r="N67" t="s">
-        <v>380</v>
-      </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>306</v>
+      </c>
+      <c r="R67" t="s">
         <v>377</v>
       </c>
-      <c r="P67" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>307</v>
-      </c>
-      <c r="R67" t="s">
-        <v>378</v>
-      </c>
       <c r="S67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V67" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -6943,61 +6943,61 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I68">
         <v>1997</v>
       </c>
       <c r="J68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K68" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="L68" t="s">
+        <v>212</v>
+      </c>
+      <c r="M68" t="s">
+        <v>216</v>
+      </c>
+      <c r="N68" t="s">
         <v>379</v>
       </c>
-      <c r="L68" t="s">
-        <v>213</v>
-      </c>
-      <c r="M68" t="s">
-        <v>217</v>
-      </c>
-      <c r="N68" t="s">
-        <v>380</v>
-      </c>
       <c r="O68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V68" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -7020,61 +7020,61 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I69">
         <v>1980</v>
       </c>
       <c r="J69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O69" t="s">
+        <v>239</v>
+      </c>
+      <c r="P69" t="s">
         <v>240</v>
       </c>
-      <c r="P69" t="s">
-        <v>241</v>
-      </c>
       <c r="Q69" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V69" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -7097,34 +7097,34 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V70" s="7" t="s">
         <v>184</v>
       </c>
       <c r="W70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="32" x14ac:dyDescent="0.2">
@@ -7147,61 +7147,61 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I71">
         <v>1989</v>
       </c>
       <c r="J71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O71" t="s">
+        <v>239</v>
+      </c>
+      <c r="P71" t="s">
         <v>240</v>
       </c>
-      <c r="P71" t="s">
-        <v>241</v>
-      </c>
       <c r="Q71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V71" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -7224,61 +7224,61 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I72">
         <v>1976</v>
       </c>
       <c r="J72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V72" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -7301,66 +7301,66 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I73">
         <v>1980</v>
       </c>
       <c r="J73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N73" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P73" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V73" s="7" t="s">
         <v>185</v>
       </c>
       <c r="W73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>383</v>
+      </c>
+      <c r="B74" t="s">
         <v>384</v>
-      </c>
-      <c r="B74" t="s">
-        <v>385</v>
       </c>
       <c r="C74">
         <v>2024</v>
@@ -7375,69 +7375,69 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I74">
         <v>1980</v>
       </c>
       <c r="J74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N74" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R74" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V74" t="s">
         <v>185</v>
       </c>
       <c r="W74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>385</v>
+      </c>
+      <c r="B75" t="s">
         <v>386</v>
-      </c>
-      <c r="B75" t="s">
-        <v>387</v>
       </c>
       <c r="C75">
         <v>2024</v>
       </c>
       <c r="D75" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E75">
         <v>38826374</v>
@@ -7446,72 +7446,72 @@
         <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I75">
         <v>2012</v>
       </c>
       <c r="J75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N75" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O75" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R75" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V75" t="s">
         <v>185</v>
       </c>
       <c r="W75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z75" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B76" t="s">
         <v>388</v>
-      </c>
-      <c r="B76" t="s">
-        <v>389</v>
       </c>
       <c r="C76">
         <v>2023</v>
       </c>
       <c r="D76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E76">
         <v>37090668</v>
@@ -7520,57 +7520,57 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H76" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O76" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V76" t="s">
         <v>185</v>
       </c>
       <c r="W76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>389</v>
+      </c>
+      <c r="B77" t="s">
         <v>390</v>
-      </c>
-      <c r="B77" t="s">
-        <v>391</v>
       </c>
       <c r="C77">
         <v>2023</v>
@@ -7585,66 +7585,66 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I77">
         <v>2018</v>
       </c>
       <c r="J77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K77" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N77" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V77" t="s">
         <v>185</v>
       </c>
       <c r="W77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>391</v>
+      </c>
+      <c r="B78" t="s">
         <v>392</v>
-      </c>
-      <c r="B78" t="s">
-        <v>393</v>
       </c>
       <c r="C78">
         <v>2021</v>
@@ -7659,60 +7659,60 @@
         <v>19</v>
       </c>
       <c r="G78" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H78" t="s">
+        <v>235</v>
+      </c>
+      <c r="I78" t="s">
         <v>463</v>
       </c>
-      <c r="H78" t="s">
-        <v>236</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>464</v>
       </c>
-      <c r="J78" t="s">
+      <c r="L78" t="s">
+        <v>212</v>
+      </c>
+      <c r="R78" t="s">
         <v>465</v>
-      </c>
-      <c r="L78" t="s">
-        <v>213</v>
-      </c>
-      <c r="R78" t="s">
-        <v>466</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V78" t="s">
         <v>185</v>
       </c>
       <c r="W78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z78" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="160" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>393</v>
+      </c>
+      <c r="B79" t="s">
         <v>394</v>
-      </c>
-      <c r="B79" t="s">
-        <v>395</v>
       </c>
       <c r="C79">
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E79">
         <v>34634087</v>
@@ -7721,66 +7721,66 @@
         <v>5</v>
       </c>
       <c r="G79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I79">
         <v>2018</v>
       </c>
       <c r="J79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O79" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V79" t="s">
         <v>185</v>
       </c>
       <c r="W79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>395</v>
+      </c>
+      <c r="B80" t="s">
         <v>396</v>
-      </c>
-      <c r="B80" t="s">
-        <v>397</v>
       </c>
       <c r="C80">
         <v>2020</v>
@@ -7795,66 +7795,66 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I80">
         <v>2019</v>
       </c>
       <c r="J80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N80" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O80" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V80" t="s">
         <v>185</v>
       </c>
       <c r="W80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="80" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>397</v>
+      </c>
+      <c r="B81" t="s">
         <v>398</v>
-      </c>
-      <c r="B81" t="s">
-        <v>399</v>
       </c>
       <c r="C81">
         <v>2020</v>
@@ -7869,66 +7869,66 @@
         <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J81" t="s">
+        <v>468</v>
+      </c>
+      <c r="K81" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="L81" t="s">
+        <v>212</v>
+      </c>
+      <c r="M81" t="s">
+        <v>213</v>
+      </c>
+      <c r="N81" t="s">
+        <v>471</v>
+      </c>
+      <c r="O81" t="s">
         <v>470</v>
       </c>
-      <c r="L81" t="s">
-        <v>213</v>
-      </c>
-      <c r="M81" t="s">
-        <v>214</v>
-      </c>
-      <c r="N81" t="s">
-        <v>472</v>
-      </c>
-      <c r="O81" t="s">
-        <v>471</v>
-      </c>
       <c r="Q81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R81" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V81" t="s">
         <v>185</v>
       </c>
       <c r="W81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>399</v>
+      </c>
+      <c r="B82" t="s">
         <v>400</v>
-      </c>
-      <c r="B82" t="s">
-        <v>401</v>
       </c>
       <c r="C82">
         <v>2020</v>
@@ -7943,63 +7943,63 @@
         <v>372</v>
       </c>
       <c r="G82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I82">
         <v>2016</v>
       </c>
       <c r="J82" t="s">
+        <v>518</v>
+      </c>
+      <c r="K82" t="s">
+        <v>520</v>
+      </c>
+      <c r="M82" t="s">
+        <v>213</v>
+      </c>
+      <c r="O82" t="s">
         <v>519</v>
-      </c>
-      <c r="K82" t="s">
-        <v>521</v>
-      </c>
-      <c r="M82" t="s">
-        <v>214</v>
-      </c>
-      <c r="O82" t="s">
-        <v>520</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V82" t="s">
         <v>185</v>
       </c>
       <c r="W82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>401</v>
+      </c>
+      <c r="B83" t="s">
         <v>402</v>
-      </c>
-      <c r="B83" t="s">
-        <v>403</v>
       </c>
       <c r="C83">
         <v>2020</v>
       </c>
       <c r="D83" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E83">
         <v>32098811</v>
@@ -8008,63 +8008,63 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H83" t="s">
+        <v>472</v>
+      </c>
+      <c r="J83" t="s">
+        <v>249</v>
+      </c>
+      <c r="K83" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="J83" t="s">
-        <v>250</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="L83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O83" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V83" t="s">
         <v>185</v>
       </c>
       <c r="W83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>403</v>
+      </c>
+      <c r="B84" t="s">
         <v>404</v>
-      </c>
-      <c r="B84" t="s">
-        <v>405</v>
       </c>
       <c r="C84">
         <v>2019</v>
@@ -8079,57 +8079,57 @@
         <v>23</v>
       </c>
       <c r="G84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N84" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="160" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>405</v>
+      </c>
+      <c r="B85" t="s">
         <v>406</v>
-      </c>
-      <c r="B85" t="s">
-        <v>407</v>
       </c>
       <c r="C85">
         <v>2018</v>
       </c>
       <c r="D85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E85">
         <v>30285857</v>
@@ -8138,60 +8138,60 @@
         <v>19</v>
       </c>
       <c r="G85" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H85" t="s">
         <v>475</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>476</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>477</v>
       </c>
-      <c r="J85" t="s">
-        <v>478</v>
-      </c>
       <c r="L85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R85" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V85" t="s">
         <v>185</v>
       </c>
       <c r="W85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z85" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>407</v>
+      </c>
+      <c r="B86" t="s">
         <v>408</v>
-      </c>
-      <c r="B86" t="s">
-        <v>409</v>
       </c>
       <c r="C86">
         <v>2018</v>
       </c>
       <c r="D86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E86">
         <v>30050872</v>
@@ -8200,72 +8200,72 @@
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I86" t="s">
+        <v>478</v>
+      </c>
+      <c r="J86" t="s">
         <v>479</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="K86" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="L86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O86" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q86" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V86" t="s">
         <v>185</v>
       </c>
       <c r="W86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>409</v>
+      </c>
+      <c r="B87" t="s">
         <v>410</v>
-      </c>
-      <c r="B87" t="s">
-        <v>411</v>
       </c>
       <c r="C87">
         <v>2016</v>
       </c>
       <c r="D87" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E87">
         <v>27403729</v>
@@ -8274,63 +8274,63 @@
         <v>600</v>
       </c>
       <c r="G87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I87">
         <v>2018</v>
       </c>
       <c r="J87" t="s">
+        <v>482</v>
+      </c>
+      <c r="L87" t="s">
+        <v>225</v>
+      </c>
+      <c r="M87" t="s">
+        <v>215</v>
+      </c>
+      <c r="N87" t="s">
         <v>483</v>
       </c>
-      <c r="L87" t="s">
-        <v>226</v>
-      </c>
-      <c r="M87" t="s">
-        <v>216</v>
-      </c>
-      <c r="N87" t="s">
-        <v>484</v>
-      </c>
       <c r="O87" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V87" t="s">
         <v>185</v>
       </c>
       <c r="W87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z87" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>411</v>
+      </c>
+      <c r="B88" t="s">
         <v>412</v>
-      </c>
-      <c r="B88" t="s">
-        <v>413</v>
       </c>
       <c r="C88">
         <v>2013</v>
@@ -8345,66 +8345,66 @@
         <v>5</v>
       </c>
       <c r="G88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I88" t="s">
+        <v>484</v>
+      </c>
+      <c r="J88" t="s">
+        <v>353</v>
+      </c>
+      <c r="K88" t="s">
         <v>485</v>
       </c>
-      <c r="J88" t="s">
-        <v>354</v>
-      </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
+        <v>225</v>
+      </c>
+      <c r="M88" t="s">
+        <v>213</v>
+      </c>
+      <c r="N88" t="s">
         <v>486</v>
       </c>
-      <c r="L88" t="s">
-        <v>226</v>
-      </c>
-      <c r="M88" t="s">
-        <v>214</v>
-      </c>
-      <c r="N88" t="s">
-        <v>487</v>
-      </c>
       <c r="O88" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q88" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V88" t="s">
         <v>185</v>
       </c>
       <c r="W88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z88" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>413</v>
+      </c>
+      <c r="B89" t="s">
         <v>414</v>
-      </c>
-      <c r="B89" t="s">
-        <v>415</v>
       </c>
       <c r="C89">
         <v>2012</v>
@@ -8419,66 +8419,66 @@
         <v>204</v>
       </c>
       <c r="G89" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H89" t="s">
+        <v>209</v>
+      </c>
+      <c r="I89" t="s">
+        <v>487</v>
+      </c>
+      <c r="J89" t="s">
         <v>210</v>
       </c>
-      <c r="I89" t="s">
+      <c r="K89" t="s">
         <v>488</v>
       </c>
-      <c r="J89" t="s">
-        <v>211</v>
-      </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
+        <v>212</v>
+      </c>
+      <c r="M89" t="s">
+        <v>213</v>
+      </c>
+      <c r="N89" t="s">
         <v>489</v>
       </c>
-      <c r="L89" t="s">
-        <v>213</v>
-      </c>
-      <c r="M89" t="s">
-        <v>214</v>
-      </c>
-      <c r="N89" t="s">
-        <v>490</v>
-      </c>
       <c r="O89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q89" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V89" t="s">
         <v>185</v>
       </c>
       <c r="W89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>415</v>
+      </c>
+      <c r="B90" t="s">
         <v>416</v>
-      </c>
-      <c r="B90" t="s">
-        <v>417</v>
       </c>
       <c r="C90">
         <v>2011</v>
@@ -8493,75 +8493,75 @@
         <v>2</v>
       </c>
       <c r="G90" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I90">
         <v>2009</v>
       </c>
       <c r="J90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K90" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="L90" t="s">
+        <v>212</v>
+      </c>
+      <c r="M90" t="s">
+        <v>213</v>
+      </c>
+      <c r="N90" t="s">
         <v>492</v>
       </c>
-      <c r="L90" t="s">
-        <v>213</v>
-      </c>
-      <c r="M90" t="s">
-        <v>214</v>
-      </c>
-      <c r="N90" t="s">
-        <v>493</v>
-      </c>
       <c r="O90" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R90" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V90" t="s">
         <v>185</v>
       </c>
       <c r="W90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>417</v>
+      </c>
+      <c r="B91" t="s">
         <v>418</v>
-      </c>
-      <c r="B91" t="s">
-        <v>419</v>
       </c>
       <c r="C91">
         <v>2011</v>
       </c>
       <c r="D91" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E91">
         <v>21843352</v>
@@ -8570,63 +8570,63 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I91">
         <v>2010</v>
       </c>
       <c r="J91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L91" t="s">
+        <v>212</v>
+      </c>
+      <c r="M91" t="s">
         <v>213</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>214</v>
       </c>
-      <c r="N91" t="s">
-        <v>215</v>
-      </c>
       <c r="O91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V91" t="s">
         <v>185</v>
       </c>
       <c r="W91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="96" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>419</v>
+      </c>
+      <c r="B92" t="s">
         <v>420</v>
-      </c>
-      <c r="B92" t="s">
-        <v>421</v>
       </c>
       <c r="C92">
         <v>2011</v>
@@ -8641,63 +8641,63 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H92" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N92" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O92" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q92" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V92" t="s">
         <v>185</v>
       </c>
       <c r="W92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z92" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>421</v>
+      </c>
+      <c r="B93" t="s">
         <v>422</v>
-      </c>
-      <c r="B93" t="s">
-        <v>423</v>
       </c>
       <c r="C93">
         <v>2011</v>
@@ -8712,60 +8712,60 @@
         <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H93" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J93" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N93" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q93" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V93" t="s">
         <v>185</v>
       </c>
       <c r="W93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z93" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>423</v>
+      </c>
+      <c r="B94" t="s">
         <v>424</v>
-      </c>
-      <c r="B94" t="s">
-        <v>425</v>
       </c>
       <c r="C94">
         <v>2010</v>
@@ -8780,72 +8780,72 @@
         <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I94" t="s">
+        <v>497</v>
+      </c>
+      <c r="J94" t="s">
         <v>498</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="L94" t="s">
+        <v>212</v>
+      </c>
+      <c r="M94" t="s">
+        <v>216</v>
+      </c>
+      <c r="N94" t="s">
         <v>500</v>
       </c>
-      <c r="L94" t="s">
-        <v>213</v>
-      </c>
-      <c r="M94" t="s">
-        <v>217</v>
-      </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>501</v>
       </c>
-      <c r="O94" t="s">
-        <v>502</v>
-      </c>
       <c r="Q94" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V94" t="s">
         <v>185</v>
       </c>
       <c r="W94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="96" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>425</v>
+      </c>
+      <c r="B95" t="s">
         <v>426</v>
-      </c>
-      <c r="B95" t="s">
-        <v>427</v>
       </c>
       <c r="C95">
         <v>2007</v>
       </c>
       <c r="D95" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E95">
         <v>17905372</v>
@@ -8854,66 +8854,66 @@
         <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="H95" t="s">
+        <v>241</v>
+      </c>
+      <c r="I95" t="s">
         <v>503</v>
       </c>
-      <c r="H95" t="s">
-        <v>242</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="J95" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="K95" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="L95" t="s">
+        <v>212</v>
+      </c>
+      <c r="M95" t="s">
+        <v>216</v>
+      </c>
+      <c r="N95" t="s">
         <v>506</v>
       </c>
-      <c r="L95" t="s">
-        <v>213</v>
-      </c>
-      <c r="M95" t="s">
-        <v>217</v>
-      </c>
-      <c r="N95" t="s">
-        <v>507</v>
-      </c>
       <c r="O95" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q95" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V95" t="s">
         <v>185</v>
       </c>
       <c r="W95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>427</v>
+      </c>
+      <c r="B96" t="s">
         <v>428</v>
-      </c>
-      <c r="B96" t="s">
-        <v>429</v>
       </c>
       <c r="C96">
         <v>1992</v>
@@ -8928,60 +8928,60 @@
         <v>8</v>
       </c>
       <c r="G96" t="s">
+        <v>521</v>
+      </c>
+      <c r="H96" t="s">
         <v>522</v>
       </c>
-      <c r="H96" t="s">
+      <c r="J96" t="s">
         <v>523</v>
       </c>
-      <c r="J96" t="s">
+      <c r="L96" t="s">
+        <v>212</v>
+      </c>
+      <c r="M96" t="s">
+        <v>216</v>
+      </c>
+      <c r="O96" t="s">
         <v>524</v>
-      </c>
-      <c r="L96" t="s">
-        <v>213</v>
-      </c>
-      <c r="M96" t="s">
-        <v>217</v>
-      </c>
-      <c r="O96" t="s">
-        <v>525</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V96" t="s">
         <v>185</v>
       </c>
       <c r="W96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z96" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>429</v>
+      </c>
+      <c r="B97" t="s">
         <v>430</v>
-      </c>
-      <c r="B97" t="s">
-        <v>431</v>
       </c>
       <c r="C97">
         <v>1988</v>
       </c>
       <c r="D97" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E97">
         <v>3145759</v>
@@ -8990,51 +8990,51 @@
         <v>6</v>
       </c>
       <c r="G97" t="s">
+        <v>526</v>
+      </c>
+      <c r="H97" t="s">
+        <v>241</v>
+      </c>
+      <c r="J97" t="s">
         <v>527</v>
       </c>
-      <c r="H97" t="s">
-        <v>242</v>
-      </c>
-      <c r="J97" t="s">
-        <v>528</v>
-      </c>
       <c r="M97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V97" t="s">
         <v>185</v>
       </c>
       <c r="W97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z97" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>431</v>
+      </c>
+      <c r="B98" t="s">
         <v>432</v>
-      </c>
-      <c r="B98" t="s">
-        <v>433</v>
       </c>
       <c r="C98">
         <v>1988</v>
@@ -9049,45 +9049,45 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z98" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="64" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>433</v>
+      </c>
+      <c r="B99" t="s">
         <v>434</v>
-      </c>
-      <c r="B99" t="s">
-        <v>435</v>
       </c>
       <c r="C99">
         <v>1986</v>
       </c>
       <c r="D99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E99">
         <v>3724662</v>
@@ -9096,69 +9096,69 @@
         <v>1</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H99" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I99">
         <v>1986</v>
       </c>
       <c r="J99" t="s">
+        <v>508</v>
+      </c>
+      <c r="L99" t="s">
+        <v>212</v>
+      </c>
+      <c r="M99" t="s">
+        <v>213</v>
+      </c>
+      <c r="N99" t="s">
         <v>509</v>
       </c>
-      <c r="L99" t="s">
-        <v>213</v>
-      </c>
-      <c r="M99" t="s">
-        <v>214</v>
-      </c>
-      <c r="N99" t="s">
-        <v>510</v>
-      </c>
       <c r="O99" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q99" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z99" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>435</v>
+      </c>
+      <c r="B100" t="s">
         <v>436</v>
-      </c>
-      <c r="B100" t="s">
-        <v>437</v>
       </c>
       <c r="C100">
         <v>1985</v>
       </c>
       <c r="D100" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E100">
         <v>3898483</v>
@@ -9167,66 +9167,66 @@
         <v>63</v>
       </c>
       <c r="G100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I100" t="s">
+        <v>510</v>
+      </c>
+      <c r="J100" t="s">
         <v>511</v>
       </c>
-      <c r="J100" t="s">
+      <c r="L100" t="s">
+        <v>212</v>
+      </c>
+      <c r="M100" t="s">
+        <v>213</v>
+      </c>
+      <c r="N100" t="s">
+        <v>214</v>
+      </c>
+      <c r="O100" t="s">
         <v>512</v>
-      </c>
-      <c r="L100" t="s">
-        <v>213</v>
-      </c>
-      <c r="M100" t="s">
-        <v>214</v>
-      </c>
-      <c r="N100" t="s">
-        <v>215</v>
-      </c>
-      <c r="O100" t="s">
-        <v>513</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V100" t="s">
         <v>185</v>
       </c>
       <c r="W100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>437</v>
+      </c>
+      <c r="B101" t="s">
         <v>438</v>
-      </c>
-      <c r="B101" t="s">
-        <v>439</v>
       </c>
       <c r="C101">
         <v>1983</v>
       </c>
       <c r="D101" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E101">
         <v>6862813</v>
@@ -9235,54 +9235,54 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I101">
         <v>1983</v>
       </c>
       <c r="J101" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V101" t="s">
         <v>185</v>
       </c>
       <c r="W101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z101" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>439</v>
+      </c>
+      <c r="B102" t="s">
         <v>440</v>
-      </c>
-      <c r="B102" t="s">
-        <v>441</v>
       </c>
       <c r="C102">
         <v>1977</v>
       </c>
       <c r="D102" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E102">
         <v>304387</v>
@@ -9291,54 +9291,54 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H102" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I102">
         <v>1977</v>
       </c>
       <c r="J102" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V102" t="s">
         <v>185</v>
       </c>
       <c r="W102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z102" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>441</v>
+      </c>
+      <c r="B103" t="s">
         <v>442</v>
-      </c>
-      <c r="B103" t="s">
-        <v>443</v>
       </c>
       <c r="C103">
         <v>1975</v>
       </c>
       <c r="D103" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E103">
         <v>1085216</v>
@@ -9347,54 +9347,54 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I103" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R103" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V103" t="s">
         <v>185</v>
       </c>
       <c r="W103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z103" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>443</v>
+      </c>
+      <c r="B104" t="s">
         <v>444</v>
-      </c>
-      <c r="B104" t="s">
-        <v>445</v>
       </c>
       <c r="C104">
         <v>1970</v>
       </c>
       <c r="D104" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E104">
         <v>4987547</v>
@@ -9403,48 +9403,48 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I104">
         <v>1969</v>
       </c>
       <c r="R104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V104" t="s">
         <v>185</v>
       </c>
       <c r="W104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z104" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B105" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C105">
         <v>2011</v>
@@ -9459,54 +9459,54 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H105" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J105" t="s">
+        <v>551</v>
+      </c>
+      <c r="K105" t="s">
         <v>552</v>
       </c>
-      <c r="K105" t="s">
+      <c r="O105" t="s">
         <v>553</v>
       </c>
-      <c r="O105" t="s">
-        <v>554</v>
-      </c>
       <c r="R105" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V105" s="2" t="s">
         <v>184</v>
       </c>
       <c r="W105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B106" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C106">
         <v>1994</v>
@@ -9521,69 +9521,69 @@
         <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I106">
         <v>1991</v>
       </c>
       <c r="J106" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K106" t="s">
+        <v>554</v>
+      </c>
+      <c r="M106" t="s">
+        <v>216</v>
+      </c>
+      <c r="N106" t="s">
+        <v>214</v>
+      </c>
+      <c r="O106" t="s">
         <v>555</v>
       </c>
-      <c r="M106" t="s">
-        <v>217</v>
-      </c>
-      <c r="N106" t="s">
-        <v>215</v>
-      </c>
-      <c r="O106" t="s">
-        <v>556</v>
-      </c>
       <c r="R106" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V106" s="2" t="s">
         <v>184</v>
       </c>
       <c r="W106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B107" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C107">
         <v>2012</v>
       </c>
       <c r="D107" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E107">
         <v>22594713</v>
@@ -9592,69 +9592,69 @@
         <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H107" t="s">
+        <v>209</v>
+      </c>
+      <c r="I107" t="s">
+        <v>349</v>
+      </c>
+      <c r="J107" t="s">
         <v>210</v>
       </c>
-      <c r="I107" t="s">
-        <v>350</v>
-      </c>
-      <c r="J107" t="s">
-        <v>211</v>
-      </c>
       <c r="K107" t="s">
+        <v>556</v>
+      </c>
+      <c r="L107" t="s">
+        <v>212</v>
+      </c>
+      <c r="N107" t="s">
+        <v>277</v>
+      </c>
+      <c r="O107" t="s">
         <v>557</v>
       </c>
-      <c r="L107" t="s">
-        <v>213</v>
-      </c>
-      <c r="N107" t="s">
-        <v>278</v>
-      </c>
-      <c r="O107" t="s">
-        <v>558</v>
-      </c>
       <c r="R107" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V107" s="2" t="s">
         <v>184</v>
       </c>
       <c r="W107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z107" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B108" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C108">
         <v>2021</v>
       </c>
       <c r="D108" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E108">
         <v>33654106</v>
@@ -9663,57 +9663,57 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H108" t="s">
+        <v>558</v>
+      </c>
+      <c r="K108" t="s">
         <v>559</v>
       </c>
-      <c r="K108" t="s">
-        <v>560</v>
-      </c>
       <c r="L108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M108" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R108" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V108" s="2" t="s">
         <v>184</v>
       </c>
       <c r="W108" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y108" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B109" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C109">
         <v>2022</v>
@@ -9728,60 +9728,60 @@
         <v>5</v>
       </c>
       <c r="G109" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H109" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J109" t="s">
+        <v>560</v>
+      </c>
+      <c r="L109" t="s">
+        <v>225</v>
+      </c>
+      <c r="M109" t="s">
+        <v>213</v>
+      </c>
+      <c r="N109" t="s">
         <v>561</v>
       </c>
-      <c r="L109" t="s">
-        <v>226</v>
-      </c>
-      <c r="M109" t="s">
-        <v>214</v>
-      </c>
-      <c r="N109" t="s">
-        <v>562</v>
-      </c>
       <c r="O109" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R109" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V109" s="2" t="s">
         <v>184</v>
       </c>
       <c r="W109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z109" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B110" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C110">
         <v>2021</v>
@@ -9796,42 +9796,42 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R110" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S110" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V110" s="2" t="s">
         <v>184</v>
       </c>
       <c r="W110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z110" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B111" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C111">
         <v>2013</v>
@@ -9846,66 +9846,66 @@
         <v>2</v>
       </c>
       <c r="G111" t="s">
+        <v>562</v>
+      </c>
+      <c r="H111" t="s">
         <v>563</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>564</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
+        <v>368</v>
+      </c>
+      <c r="K111" t="s">
         <v>565</v>
       </c>
-      <c r="J111" t="s">
-        <v>369</v>
-      </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
+        <v>212</v>
+      </c>
+      <c r="M111" t="s">
+        <v>213</v>
+      </c>
+      <c r="N111" t="s">
         <v>566</v>
       </c>
-      <c r="L111" t="s">
-        <v>213</v>
-      </c>
-      <c r="M111" t="s">
-        <v>214</v>
-      </c>
-      <c r="N111" t="s">
+      <c r="O111" t="s">
         <v>567</v>
       </c>
-      <c r="O111" t="s">
-        <v>568</v>
-      </c>
       <c r="R111" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S111" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V111" s="2" t="s">
         <v>184</v>
       </c>
       <c r="W111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B112" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C112">
         <v>2019</v>
@@ -9920,63 +9920,63 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H112" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I112">
         <v>2015</v>
       </c>
       <c r="J112" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K112" t="s">
+        <v>568</v>
+      </c>
+      <c r="L112" t="s">
+        <v>225</v>
+      </c>
+      <c r="N112" t="s">
         <v>569</v>
       </c>
-      <c r="L112" t="s">
-        <v>226</v>
-      </c>
-      <c r="N112" t="s">
+      <c r="O112" t="s">
         <v>570</v>
       </c>
-      <c r="O112" t="s">
-        <v>571</v>
-      </c>
       <c r="R112" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S112" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V112" s="2" t="s">
         <v>184</v>
       </c>
       <c r="W112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z112" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:26" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B113" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C113">
         <v>2021</v>
@@ -9991,40 +9991,40 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
+        <v>571</v>
+      </c>
+      <c r="K113" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="O113" t="s">
         <v>573</v>
       </c>
-      <c r="O113" t="s">
-        <v>574</v>
-      </c>
       <c r="R113" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>184</v>
       </c>
       <c r="T113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V113" s="2" t="s">
         <v>184</v>
       </c>
       <c r="W113" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y113" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z113" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
